--- a/src/files/template_presupuesto.xlsx
+++ b/src/files/template_presupuesto.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8AB774C-A078-49C9-AF0F-40B94EBB66B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F06AE67-0812-4939-A7EC-1F98871A27F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3225" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dia a dia" sheetId="4" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Cash Spent &gt;</t>
   </si>
@@ -52,18 +52,6 @@
   </si>
   <si>
     <t>Slicer to filter table data by Account type is in this cell.</t>
-  </si>
-  <si>
-    <t>ATM withdrawal</t>
-  </si>
-  <si>
-    <t>Lunch</t>
-  </si>
-  <si>
-    <t>Car payment</t>
-  </si>
-  <si>
-    <t>Electricity payment</t>
   </si>
   <si>
     <t>Slicer to filter table data by Description is in this cell.</t>
@@ -120,25 +108,10 @@
     <t>Resumen de mis finanzas</t>
   </si>
   <si>
-    <t>Ingreso</t>
-  </si>
-  <si>
     <t>Presupuesto mensual</t>
   </si>
   <si>
-    <t>Gasto</t>
-  </si>
-  <si>
-    <t>Ahorro</t>
-  </si>
-  <si>
     <t>Seguimiento dia a dia</t>
-  </si>
-  <si>
-    <t>pago nomina</t>
-  </si>
-  <si>
-    <t>Paso a fiducuenta</t>
   </si>
   <si>
     <t>Cuenta</t>
@@ -517,7 +490,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -569,42 +542,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -635,11 +572,44 @@
     <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -657,20 +627,65 @@
   </cellStyles>
   <dxfs count="48">
     <dxf>
+      <alignment horizontal="right" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="3"/>
+        <name val="Times New Roman"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="8"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="168" formatCode="0.00_);\(0.00\)"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="168" formatCode="0.00_);\(0.00\)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="168" formatCode="0.00_);\(0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00_);\(0.00\)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="169" formatCode="_(@_)"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -699,59 +714,97 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="168" formatCode="0.00_);\(0.00\)"/>
+    </dxf>
+    <dxf>
       <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="3"/>
-        <name val="Times New Roman"/>
-        <scheme val="major"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="168" formatCode="0.00_);\(0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00_);\(0.00\)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="169" formatCode="_(@_)"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="169" formatCode="_(@_)"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
-        <sz val="8"/>
+        <color rgb="FFC00000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="7" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
       </font>
     </dxf>
     <dxf>
@@ -850,89 +903,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.00_);\(0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="168" formatCode="0.00_);\(0.00\)"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="_(@_)"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="-1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1423,7 +1393,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.73946360153256707</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2870,7 +2840,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="MonthlySummary" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" fieldPrintTitles="1" itemPrintTitles="1" mergeItem="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="MonthlySummary" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" fieldPrintTitles="1" itemPrintTitles="1" mergeItem="1" createdVersion="4" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B19:D36" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -2879,25 +2849,25 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <formats count="7">
-    <format dxfId="15">
+    <format dxfId="6">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="5">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="3">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="2">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="1">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2930,13 +2900,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="CashSpent" displayName="CashSpent" ref="B4:E31" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="CashSpent" displayName="CashSpent" ref="B4:E31" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="B4:E31" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Fecha" totalsRowLabel="Total" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Descripción" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Cantidad" totalsRowFunction="sum" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tipo " dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Fecha" totalsRowLabel="Total" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Descripción" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Cantidad" totalsRowFunction="sum" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Tipo " dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="Cash Spent Table" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="1"/>
   <extLst>
@@ -2948,17 +2918,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CashSummaryTable" displayName="CashSummaryTable" ref="D4:H6" totalsRowCount="1" headerRowDxfId="27" dataDxfId="26" totalsRowDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="CashSummaryTable" displayName="CashSummaryTable" ref="D4:H6" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17" totalsRowDxfId="16">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Cuenta" totalsRowLabel="Total" dataDxfId="24" totalsRowDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ingresos" totalsRowFunction="sum" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Gastos" totalsRowFunction="sum" dataDxfId="23" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Cuenta" totalsRowLabel="Total" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ingresos" totalsRowFunction="sum" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Gastos" totalsRowFunction="sum" dataDxfId="12" totalsRowDxfId="11">
       <calculatedColumnFormula array="1">SUMIF(CashSpent[[Tipo ]],"=" &amp;CashSummaryTable[[#This Row],[Cuenta]],CashSpent[Cantidad])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9F1873E9-F01C-4E9F-95DB-7155FED186FC}" name="Ahorros" totalsRowFunction="sum" dataDxfId="5" totalsRowDxfId="1" dataCellStyle="Moneda">
+    <tableColumn id="5" xr3:uid="{9F1873E9-F01C-4E9F-95DB-7155FED186FC}" name="Ahorros" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9" dataCellStyle="Moneda">
       <calculatedColumnFormula>SUMIF(CashSpent[[Tipo ]],"=Ahorro",CashSpent[Cantidad])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sobrante" totalsRowFunction="sum" dataDxfId="22" totalsRowDxfId="0">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sobrante" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>CashSummaryTable[[#This Row],[Ingresos]]-CashSummaryTable[[#This Row],[Gastos]]-CashSummaryTable[[#This Row],[Ahorros]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3204,8 +3174,8 @@
   </sheetPr>
   <dimension ref="B1:G31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="B5:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3224,185 +3194,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>31</v>
+      <c r="B1" s="27" t="s">
+        <v>24</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="12"/>
     </row>
     <row r="2" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
       <c r="E2" s="13" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
-      <c r="F2" s="40"/>
     </row>
     <row r="3" spans="2:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
     </row>
     <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="26"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
-        <f ca="1">TODAY()+105</f>
-        <v>45092</v>
-      </c>
-      <c r="C5" s="7" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11">
-        <v>40</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
-        <f ca="1">TODAY()+106</f>
-        <v>45093</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="11">
-        <v>5</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
-        <f ca="1">TODAY()+107</f>
-        <v>45094</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="11">
-        <v>230</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="5">
-        <f ca="1">TODAY()+135</f>
-        <v>45122</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="11">
-        <v>70</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
-        <v>44987</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="11">
-        <v>1000</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
-        <v>44988</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="11">
-        <v>300</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="11"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="11"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="11"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="11"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="11"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
@@ -3572,155 +3489,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
-        <v>25</v>
+      <c r="B1" s="27" t="s">
+        <v>21</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
       <c r="G1" s="15"/>
     </row>
     <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="16"/>
       <c r="H2" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="35" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
+      <c r="B5" s="36"/>
       <c r="D5" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E5" s="10">
         <f>SUMIF(CashSpent[[Tipo ]],"=Ingreso",CashSpent[Cantidad])</f>
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="F5" s="10">
         <f>SUMIF(CashSpent[[Tipo ]],"=Gasto",CashSpent[Cantidad])</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G5" s="10">
         <f>SUMIF(CashSpent[[Tipo ]],"=Ahorro",CashSpent[Cantidad])</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H5" s="10">
         <f>CashSummaryTable[[#This Row],[Ingresos]]-CashSummaryTable[[#This Row],[Gastos]]-CashSummaryTable[[#This Row],[Ahorros]]</f>
-        <v>965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25"/>
+      <c r="B6" s="36"/>
       <c r="D6" s="8" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="4">
         <f>SUBTOTAL(109,CashSummaryTable[Ingresos])</f>
-        <v>1305</v>
+        <v>0</v>
       </c>
       <c r="F6" s="4">
         <f>SUBTOTAL(109,CashSummaryTable[Gastos])</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G6" s="4">
         <f>SUBTOTAL(109,CashSummaryTable[Ahorros])</f>
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
         <f>SUBTOTAL(109,CashSummaryTable[Sobrante])</f>
-        <v>965</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25"/>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="25"/>
+      <c r="B9" s="36"/>
     </row>
     <row r="10" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="25"/>
+      <c r="B10" s="36"/>
     </row>
     <row r="11" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
+      <c r="B11" s="36"/>
     </row>
     <row r="12" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25"/>
+      <c r="B12" s="36"/>
     </row>
     <row r="13" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="25"/>
+      <c r="B13" s="36"/>
     </row>
     <row r="14" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="25"/>
+      <c r="B14" s="36"/>
     </row>
     <row r="15" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="25"/>
+      <c r="B15" s="36"/>
     </row>
     <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25"/>
+      <c r="B16" s="36"/>
     </row>
     <row r="17" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
+      <c r="B17" s="36"/>
     </row>
     <row r="18" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="25"/>
+      <c r="B18" s="36"/>
     </row>
     <row r="19" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="25"/>
+      <c r="B19" s="36"/>
     </row>
     <row r="20" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="33" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
+      <c r="B21" s="34"/>
     </row>
     <row r="22" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="17">
+      <c r="B22" s="31" t="e">
         <f>CashSummaryTable[[#Totals],[Sobrante]]/CashSummaryTable[[#Totals],[Ingresos]]</f>
-        <v>0.73946360153256707</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="18"/>
+      <c r="B23" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3732,13 +3649,13 @@
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="B22">
-    <cfRule type="expression" dxfId="8" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
       <formula>$B$22&gt;=0.5</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="8" stopIfTrue="1">
       <formula>AND($B$22&gt;=0.25,$B$22&lt;0.5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="9" stopIfTrue="1">
       <formula>$B$22&lt;0.25</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3791,250 +3708,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+    </row>
+    <row r="2" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+    </row>
+    <row r="4" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-    </row>
-    <row r="2" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="9" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
+      <c r="G5" s="30"/>
+    </row>
+    <row r="6" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+    </row>
+    <row r="7" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+    </row>
+    <row r="8" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="2:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+    </row>
+    <row r="14" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+    </row>
+    <row r="15" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+    </row>
+    <row r="18" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-    </row>
-    <row r="5" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="26"/>
-    </row>
-    <row r="6" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-    </row>
-    <row r="8" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-    </row>
-    <row r="9" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" spans="2:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="14"/>
     </row>
     <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19"/>
     </row>
     <row r="20" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B21" s="32"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="2:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="37"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
     </row>
     <row r="37" spans="2:4" ht="15" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:4" ht="15" x14ac:dyDescent="0.25"/>
@@ -4069,23 +3986,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9677210f24a1be23c92c90fd886aa0aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e05723c5c1908df1a1a4ebf11d344e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -4296,25 +4196,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A825464B-157B-483B-B628-57EE2CC446D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99134604-2040-4903-854D-3A900CC7EEC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5597AEA-0E65-40D9-82F3-2D4C84D00AA0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4331,4 +4230,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99134604-2040-4903-854D-3A900CC7EEC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A825464B-157B-483B-B628-57EE2CC446D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>